--- a/public/data/simdasi/source/5.4.16.xlsx
+++ b/public/data/simdasi/source/5.4.16.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="78">
   <si>
     <t>Sukapura</t>
   </si>
@@ -144,10 +144,115 @@
     <t>-</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Produksi Perikanan Tangkap dan Perikanan Budidaya Menurut Subsektor</t>
+  </si>
+  <si>
+    <t>0,96</t>
+  </si>
+  <si>
+    <t>20,16</t>
+  </si>
+  <si>
+    <t>106,84</t>
+  </si>
+  <si>
+    <t>0,77</t>
+  </si>
+  <si>
+    <t>0,45</t>
+  </si>
+  <si>
+    <t>27,04</t>
+  </si>
+  <si>
+    <t>12,32</t>
+  </si>
+  <si>
+    <t>143,17</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>39,78</t>
+  </si>
+  <si>
+    <t>22,14</t>
+  </si>
+  <si>
+    <t>7,67</t>
+  </si>
+  <si>
+    <t>0,37</t>
+  </si>
+  <si>
+    <t>20,91</t>
+  </si>
+  <si>
+    <t>6,83</t>
+  </si>
+  <si>
+    <t>1,61</t>
+  </si>
+  <si>
+    <t>7,33</t>
+  </si>
+  <si>
+    <t>5,67</t>
+  </si>
+  <si>
+    <t>37,79</t>
+  </si>
+  <si>
+    <t>44,37</t>
+  </si>
+  <si>
+    <t>56,56</t>
+  </si>
+  <si>
+    <t>9,85</t>
+  </si>
+  <si>
+    <t>1,01</t>
+  </si>
+  <si>
+    <t>5,85</t>
+  </si>
+  <si>
+    <t>31,01</t>
+  </si>
+  <si>
+    <t>38,00</t>
+  </si>
+  <si>
+    <t>124,90</t>
+  </si>
+  <si>
+    <t>9 509,75</t>
+  </si>
+  <si>
+    <t>6 902,48</t>
+  </si>
+  <si>
+    <t>609,61</t>
+  </si>
+  <si>
+    <t>2,25</t>
+  </si>
+  <si>
+    <t>1 022,43</t>
+  </si>
+  <si>
+    <t>5,94</t>
+  </si>
+  <si>
+    <t>1 313,20</t>
+  </si>
+  <si>
+    <t>696,77</t>
+  </si>
+  <si>
+    <t>9 358,50</t>
   </si>
 </sst>
 </file>
@@ -467,816 +572,995 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
+      <c r="O8">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.96</v>
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.77164532461789004</v>
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.4525384565229934</v>
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1">
-        <v>27.037371270654422</v>
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="2">
-        <v>20.16</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1">
-        <v>12.317020686616804</v>
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1">
-        <v>143.17173408202243</v>
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.7951738922841276</v>
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1">
-        <v>39.777265605205791</v>
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1">
-        <v>22.144519393638877</v>
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1">
-        <v>7.6744180923087253</v>
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.37231136285065813</v>
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="1">
-        <v>20.910087041649618</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="1">
-        <v>6.8340044877585058</v>
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="1"/>
       <c r="J22" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="1">
-        <v>1.6088654892733598</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7.3336931450805602</v>
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1">
-        <v>5.6729442658873657</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="1">
-        <v>37.785159613075521</v>
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="1"/>
       <c r="J26" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="1">
-        <v>44.373749630696238</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="1"/>
       <c r="J27" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="1">
-        <v>56.564544755262716</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="1"/>
       <c r="J28" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1">
-        <v>9.8549616742172894</v>
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="1"/>
       <c r="J29" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1.0088436928856541</v>
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="1">
-        <v>5.8458888989534792</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="1"/>
       <c r="J31" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="1">
-        <v>31.012455621503157</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="2">
-        <v>106.84</v>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
